--- a/wallethub-tests/target/test-classes/TestData/TestData.xlsx
+++ b/wallethub-tests/target/test-classes/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gprab\Downloads\wallethub-base\wallethub-tests\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA12772F-2068-4C56-82D3-6214813DC972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2DE21-3038-4B5D-B6BE-46233D6C11EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5079574-A141-44D4-A52F-F1DE0BB25368}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>url</t>
   </si>
@@ -43,13 +43,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>chrome</t>
   </si>
   <si>
     <t>http://www.facebook.com</t>
@@ -417,68 +411,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EB7B9-91F9-475A-BFD2-C24827B71399}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>9677333397</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>9677333397</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>9677333397</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
